--- a/data/pca/factorExposure/factorExposure_2016-12-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01577383385443801</v>
+        <v>0.01440786681944264</v>
       </c>
       <c r="C2">
-        <v>-0.03944417510882463</v>
+        <v>-0.04097382447198574</v>
       </c>
       <c r="D2">
-        <v>-0.03045576559089182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03271123338229503</v>
+      </c>
+      <c r="E2">
+        <v>0.0543328852735797</v>
+      </c>
+      <c r="F2">
+        <v>-0.01484311431531771</v>
+      </c>
+      <c r="G2">
+        <v>-0.1013410211848946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06414075273999469</v>
+        <v>0.03615333025397675</v>
       </c>
       <c r="C3">
-        <v>-0.1024175555909113</v>
+        <v>-0.08981894358181038</v>
       </c>
       <c r="D3">
-        <v>-0.01929970703577153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01937467549376057</v>
+      </c>
+      <c r="E3">
+        <v>0.1006034304170338</v>
+      </c>
+      <c r="F3">
+        <v>-0.02602504021181887</v>
+      </c>
+      <c r="G3">
+        <v>-0.1034245780709808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06545449241691471</v>
+        <v>0.05642640865385828</v>
       </c>
       <c r="C4">
-        <v>-0.06189627465279451</v>
+        <v>-0.05916727294223199</v>
       </c>
       <c r="D4">
-        <v>-0.02532199009604567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02739196104152991</v>
+      </c>
+      <c r="E4">
+        <v>0.05363617885487593</v>
+      </c>
+      <c r="F4">
+        <v>-0.007299961304008351</v>
+      </c>
+      <c r="G4">
+        <v>-0.09330180273662105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02364796422202466</v>
+        <v>0.03452828928463477</v>
       </c>
       <c r="C6">
-        <v>-0.05315996990357106</v>
+        <v>-0.03987665834894359</v>
       </c>
       <c r="D6">
-        <v>-0.02148413196370408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02066175374897943</v>
+      </c>
+      <c r="E6">
+        <v>0.06270945645796906</v>
+      </c>
+      <c r="F6">
+        <v>-0.01036962791217802</v>
+      </c>
+      <c r="G6">
+        <v>-0.08471543213518193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01900511904706107</v>
+        <v>0.02072206649219072</v>
       </c>
       <c r="C7">
-        <v>-0.04349890669511997</v>
+        <v>-0.03544646044875528</v>
       </c>
       <c r="D7">
-        <v>-0.0175606569591942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01630210504239353</v>
+      </c>
+      <c r="E7">
+        <v>0.0292248106233268</v>
+      </c>
+      <c r="F7">
+        <v>0.001296747032797254</v>
+      </c>
+      <c r="G7">
+        <v>-0.1235925281594484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002084016574830541</v>
+        <v>0.004973988191734255</v>
       </c>
       <c r="C8">
-        <v>-0.01026945743437517</v>
+        <v>-0.01979715339195451</v>
       </c>
       <c r="D8">
-        <v>-0.004044405951384274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.005054316328993563</v>
+      </c>
+      <c r="E8">
+        <v>0.03687306789698693</v>
+      </c>
+      <c r="F8">
+        <v>-0.005626002600512863</v>
+      </c>
+      <c r="G8">
+        <v>-0.06671736291059048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0290605044586027</v>
+        <v>0.03504395246857704</v>
       </c>
       <c r="C9">
-        <v>-0.04224087752845508</v>
+        <v>-0.04515703572958324</v>
       </c>
       <c r="D9">
-        <v>-0.01784574427702282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01816456983933762</v>
+      </c>
+      <c r="E9">
+        <v>0.03812115491470613</v>
+      </c>
+      <c r="F9">
+        <v>-0.004892871248460209</v>
+      </c>
+      <c r="G9">
+        <v>-0.09920892321071552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07909627750086694</v>
+        <v>0.09211462348645158</v>
       </c>
       <c r="C10">
-        <v>0.1890858335719697</v>
+        <v>0.1947955965627989</v>
       </c>
       <c r="D10">
-        <v>0.05095474109170337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01485000740447463</v>
+      </c>
+      <c r="E10">
+        <v>0.01650339179881983</v>
+      </c>
+      <c r="F10">
+        <v>-0.02837878020952558</v>
+      </c>
+      <c r="G10">
+        <v>-0.05206473469512529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0392489429527693</v>
+        <v>0.0363891006543121</v>
       </c>
       <c r="C11">
-        <v>-0.05430615988471457</v>
+        <v>-0.05095708947614453</v>
       </c>
       <c r="D11">
-        <v>-0.005273598869850352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003291584624895464</v>
+      </c>
+      <c r="E11">
+        <v>0.0277501907528527</v>
+      </c>
+      <c r="F11">
+        <v>0.01387401784358768</v>
+      </c>
+      <c r="G11">
+        <v>-0.07461438547375786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03709165496556438</v>
+        <v>0.03733114752665923</v>
       </c>
       <c r="C12">
-        <v>-0.04413046571609601</v>
+        <v>-0.04617630239502066</v>
       </c>
       <c r="D12">
-        <v>-0.008899166748934123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007523564323047692</v>
+      </c>
+      <c r="E12">
+        <v>0.01815406017097381</v>
+      </c>
+      <c r="F12">
+        <v>0.004476242267771661</v>
+      </c>
+      <c r="G12">
+        <v>-0.07401808655191236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009104193407455283</v>
+        <v>0.01117711206142929</v>
       </c>
       <c r="C13">
-        <v>-0.03312222577749148</v>
+        <v>-0.03592012417192653</v>
       </c>
       <c r="D13">
-        <v>-0.02772322498398681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0306911741006416</v>
+      </c>
+      <c r="E13">
+        <v>0.06219864913765997</v>
+      </c>
+      <c r="F13">
+        <v>-0.01946869301903918</v>
+      </c>
+      <c r="G13">
+        <v>-0.1311286179040079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006704919956156592</v>
+        <v>0.008692911115872032</v>
       </c>
       <c r="C14">
-        <v>-0.02729185386740453</v>
+        <v>-0.02686093673373171</v>
       </c>
       <c r="D14">
-        <v>-0.01184542306027584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01236108695967945</v>
+      </c>
+      <c r="E14">
+        <v>0.02338381789818768</v>
+      </c>
+      <c r="F14">
+        <v>-0.007172488457010021</v>
+      </c>
+      <c r="G14">
+        <v>-0.1147661682530956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03372902944811425</v>
+        <v>0.03514471559385644</v>
       </c>
       <c r="C16">
-        <v>-0.04104247965429592</v>
+        <v>-0.04400284815084993</v>
       </c>
       <c r="D16">
-        <v>-0.003694393202294465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002944338044884441</v>
+      </c>
+      <c r="E16">
+        <v>0.0240254106307042</v>
+      </c>
+      <c r="F16">
+        <v>-0.003617856829433232</v>
+      </c>
+      <c r="G16">
+        <v>-0.08106694696863874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02892952650674584</v>
+        <v>0.01769387147901252</v>
       </c>
       <c r="C19">
-        <v>-0.05573180632509667</v>
+        <v>-0.04730148264343161</v>
       </c>
       <c r="D19">
-        <v>-0.01979327934121726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02414878463338875</v>
+      </c>
+      <c r="E19">
+        <v>0.1022823397687684</v>
+      </c>
+      <c r="F19">
+        <v>-0.01975507328273845</v>
+      </c>
+      <c r="G19">
+        <v>-0.1342194897390264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01226463322880203</v>
+        <v>0.01608270435978615</v>
       </c>
       <c r="C20">
-        <v>-0.04166366360867407</v>
+        <v>-0.03646010147796134</v>
       </c>
       <c r="D20">
-        <v>-0.01743849324294068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01656738720957702</v>
+      </c>
+      <c r="E20">
+        <v>0.04690347640892501</v>
+      </c>
+      <c r="F20">
+        <v>-0.03048362241914427</v>
+      </c>
+      <c r="G20">
+        <v>-0.1062813671050621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005347399420557876</v>
+        <v>0.006288412361517189</v>
       </c>
       <c r="C21">
-        <v>-0.03421984077269031</v>
+        <v>-0.03595692735404297</v>
       </c>
       <c r="D21">
-        <v>-0.01981402613777479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02315900022368087</v>
+      </c>
+      <c r="E21">
+        <v>0.06673910349038482</v>
+      </c>
+      <c r="F21">
+        <v>-0.02139363285916925</v>
+      </c>
+      <c r="G21">
+        <v>-0.1506245757034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002437317600019653</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01301615141498053</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003608382162373963</v>
+      </c>
+      <c r="E22">
+        <v>0.02457460652390204</v>
+      </c>
+      <c r="F22">
+        <v>0.001622647300031442</v>
+      </c>
+      <c r="G22">
+        <v>-0.01098946925061197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002447810463795235</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.012987830316225</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003588401294906667</v>
+      </c>
+      <c r="E23">
+        <v>0.02439507251862226</v>
+      </c>
+      <c r="F23">
+        <v>0.001319837902989594</v>
+      </c>
+      <c r="G23">
+        <v>-0.01081688357661628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02720825809385963</v>
+        <v>0.03099318640668237</v>
       </c>
       <c r="C24">
-        <v>-0.04746240943024661</v>
+        <v>-0.04965722563915882</v>
       </c>
       <c r="D24">
-        <v>-0.01046866845168902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.008110394391352882</v>
+      </c>
+      <c r="E24">
+        <v>0.02246476230591578</v>
+      </c>
+      <c r="F24">
+        <v>0.005965306361215761</v>
+      </c>
+      <c r="G24">
+        <v>-0.08120345703731459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04619306331769688</v>
+        <v>0.04331297033605062</v>
       </c>
       <c r="C25">
-        <v>-0.05255182994119841</v>
+        <v>-0.05560317186787515</v>
       </c>
       <c r="D25">
-        <v>-0.01410958237781653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01217394933939896</v>
+      </c>
+      <c r="E25">
+        <v>0.01528314844390138</v>
+      </c>
+      <c r="F25">
+        <v>0.005171588138888569</v>
+      </c>
+      <c r="G25">
+        <v>-0.08867735766507243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004396750551708291</v>
+        <v>0.01486734747117771</v>
       </c>
       <c r="C26">
-        <v>-0.008329682650754707</v>
+        <v>-0.009909490216925127</v>
       </c>
       <c r="D26">
-        <v>-0.02370368195655596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0249930460384244</v>
+      </c>
+      <c r="E26">
+        <v>0.01725057495496668</v>
+      </c>
+      <c r="F26">
+        <v>-0.006192749244735704</v>
+      </c>
+      <c r="G26">
+        <v>-0.08447456201233665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09570412198076463</v>
+        <v>0.1234343795227992</v>
       </c>
       <c r="C28">
-        <v>0.2200076938039629</v>
+        <v>0.246241553044914</v>
       </c>
       <c r="D28">
-        <v>0.04497475020293156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006342018163046964</v>
+      </c>
+      <c r="E28">
+        <v>-0.001529759645620127</v>
+      </c>
+      <c r="F28">
+        <v>-0.0310602259604423</v>
+      </c>
+      <c r="G28">
+        <v>-0.05429153279449438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01170381188771953</v>
+        <v>0.008032937077724086</v>
       </c>
       <c r="C29">
-        <v>-0.01950939336197886</v>
+        <v>-0.02209711839940033</v>
       </c>
       <c r="D29">
-        <v>-0.009308911763837954</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01098481845933255</v>
+      </c>
+      <c r="E29">
+        <v>0.01443157429124895</v>
+      </c>
+      <c r="F29">
+        <v>-0.01112532353471476</v>
+      </c>
+      <c r="G29">
+        <v>-0.1037225045030812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03784580292029419</v>
+        <v>0.03946457807402104</v>
       </c>
       <c r="C30">
-        <v>-0.0722708728183427</v>
+        <v>-0.0640312939525175</v>
       </c>
       <c r="D30">
-        <v>-0.03284548347098386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03321001329456929</v>
+      </c>
+      <c r="E30">
+        <v>0.08558951474661827</v>
+      </c>
+      <c r="F30">
+        <v>0.01827745106737487</v>
+      </c>
+      <c r="G30">
+        <v>-0.1175715054387801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04211395887253167</v>
+        <v>0.05645213002202626</v>
       </c>
       <c r="C31">
-        <v>-0.02478108579140286</v>
+        <v>-0.04050486742669313</v>
       </c>
       <c r="D31">
-        <v>-0.004051373106630711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004495586004468382</v>
+      </c>
+      <c r="E31">
+        <v>0.001466379410519796</v>
+      </c>
+      <c r="F31">
+        <v>-0.03545623868254388</v>
+      </c>
+      <c r="G31">
+        <v>-0.09563906499524175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008989173669824846</v>
+        <v>0.001623363109544536</v>
       </c>
       <c r="C32">
-        <v>-0.03829330069189008</v>
+        <v>-0.02416701022766066</v>
       </c>
       <c r="D32">
-        <v>0.001054567729609576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.000590859811382007</v>
+      </c>
+      <c r="E32">
+        <v>0.04674951612105958</v>
+      </c>
+      <c r="F32">
+        <v>0.01160033441498293</v>
+      </c>
+      <c r="G32">
+        <v>-0.07677811883011128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02956596046331232</v>
+        <v>0.02672122822010729</v>
       </c>
       <c r="C33">
-        <v>-0.05415581949155636</v>
+        <v>-0.04635892613501573</v>
       </c>
       <c r="D33">
-        <v>-0.01764215456199889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01959596456205152</v>
+      </c>
+      <c r="E33">
+        <v>0.07059105499911358</v>
+      </c>
+      <c r="F33">
+        <v>-0.003305360679633091</v>
+      </c>
+      <c r="G33">
+        <v>-0.1566347760606918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05248812450601428</v>
+        <v>0.04252503783202557</v>
       </c>
       <c r="C34">
-        <v>-0.05361067193299977</v>
+        <v>-0.05998451140931416</v>
       </c>
       <c r="D34">
-        <v>0.002981797157763075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003390852233530526</v>
+      </c>
+      <c r="E34">
+        <v>0.02237976831181525</v>
+      </c>
+      <c r="F34">
+        <v>0.01946122406491224</v>
+      </c>
+      <c r="G34">
+        <v>-0.07847556077042084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008118357846037908</v>
+        <v>0.01551762556163934</v>
       </c>
       <c r="C36">
-        <v>-0.003882187799092337</v>
+        <v>-0.005924089129089745</v>
       </c>
       <c r="D36">
-        <v>-0.01105327409602751</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0142333525895522</v>
+      </c>
+      <c r="E36">
+        <v>0.02121971284020114</v>
+      </c>
+      <c r="F36">
+        <v>-0.01018346816967095</v>
+      </c>
+      <c r="G36">
+        <v>-0.096268637062561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03513308862041956</v>
+        <v>0.03130276085168993</v>
       </c>
       <c r="C38">
-        <v>-0.02327352191858988</v>
+        <v>-0.02249633791176238</v>
       </c>
       <c r="D38">
-        <v>0.008580021984936494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005906082812397409</v>
+      </c>
+      <c r="E38">
+        <v>0.02196283164186997</v>
+      </c>
+      <c r="F38">
+        <v>-0.01457969702059912</v>
+      </c>
+      <c r="G38">
+        <v>-0.09111849529875869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0357494253172267</v>
+        <v>0.03703030282419861</v>
       </c>
       <c r="C39">
-        <v>-0.0841854985410171</v>
+        <v>-0.0752765868875655</v>
       </c>
       <c r="D39">
-        <v>-0.01961914606469074</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01417957963848553</v>
+      </c>
+      <c r="E39">
+        <v>0.04432122140117342</v>
+      </c>
+      <c r="F39">
+        <v>0.01561591065330029</v>
+      </c>
+      <c r="G39">
+        <v>-0.09065488893874669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01697846743397827</v>
+        <v>0.016471350769504</v>
       </c>
       <c r="C40">
-        <v>-0.0253003166300513</v>
+        <v>-0.03516483474228408</v>
       </c>
       <c r="D40">
-        <v>-0.01357309074039772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01629558012217319</v>
+      </c>
+      <c r="E40">
+        <v>0.03451654054832985</v>
+      </c>
+      <c r="F40">
+        <v>-0.03021981665600173</v>
+      </c>
+      <c r="G40">
+        <v>-0.116195921283081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01024493069702807</v>
+        <v>0.01863175830017733</v>
       </c>
       <c r="C41">
-        <v>0.001763274602293256</v>
+        <v>0.002251941469329635</v>
       </c>
       <c r="D41">
-        <v>-0.002258196649239644</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006097497410034124</v>
+      </c>
+      <c r="E41">
+        <v>0.01767856707245354</v>
+      </c>
+      <c r="F41">
+        <v>-0.01600273404577473</v>
+      </c>
+      <c r="G41">
+        <v>-0.08954029319740374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0135523851556699</v>
+        <v>0.005465348645911625</v>
       </c>
       <c r="C42">
-        <v>-0.03162510213571231</v>
+        <v>-0.02432795174898507</v>
       </c>
       <c r="D42">
-        <v>-0.09271949350112882</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0830331884775441</v>
+      </c>
+      <c r="E42">
+        <v>-0.01217576381033983</v>
+      </c>
+      <c r="F42">
+        <v>-0.03084662265902701</v>
+      </c>
+      <c r="G42">
+        <v>0.02425454147036966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02977147534267232</v>
+        <v>0.03328119953831013</v>
       </c>
       <c r="C43">
-        <v>-0.009075408858971113</v>
+        <v>-0.01058469727632523</v>
       </c>
       <c r="D43">
-        <v>-0.00208464324997599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007782791818757191</v>
+      </c>
+      <c r="E43">
+        <v>0.03590609284947024</v>
+      </c>
+      <c r="F43">
+        <v>-0.01358137911324224</v>
+      </c>
+      <c r="G43">
+        <v>-0.115427247841713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01989420454871759</v>
+        <v>0.01495994257321969</v>
       </c>
       <c r="C44">
-        <v>-0.05397580167041206</v>
+        <v>-0.05126199880581429</v>
       </c>
       <c r="D44">
-        <v>-0.01058916207363663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.009552960141531636</v>
+      </c>
+      <c r="E44">
+        <v>0.04231987858475997</v>
+      </c>
+      <c r="F44">
+        <v>-0.02137758436656525</v>
+      </c>
+      <c r="G44">
+        <v>-0.1180815558543283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0009440748137262454</v>
+        <v>0.01012521140970144</v>
       </c>
       <c r="C46">
-        <v>-0.009997112865590364</v>
+        <v>-0.01697825794163102</v>
       </c>
       <c r="D46">
-        <v>-0.01286128081475373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01394146464835389</v>
+      </c>
+      <c r="E46">
+        <v>0.006931709589457285</v>
+      </c>
+      <c r="F46">
+        <v>-0.0170781569790729</v>
+      </c>
+      <c r="G46">
+        <v>-0.1127828488658811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07367153545659715</v>
+        <v>0.08553651313756212</v>
       </c>
       <c r="C47">
-        <v>-0.06491809457515152</v>
+        <v>-0.07141979324375169</v>
       </c>
       <c r="D47">
-        <v>-0.0001842929084086653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004953015008040331</v>
+      </c>
+      <c r="E47">
+        <v>-0.007547129735465542</v>
+      </c>
+      <c r="F47">
+        <v>-0.04373282005016207</v>
+      </c>
+      <c r="G47">
+        <v>-0.08827389276005293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01181643639248586</v>
+        <v>0.01748502926133461</v>
       </c>
       <c r="C48">
-        <v>-0.01053894566296041</v>
+        <v>-0.01217647044678577</v>
       </c>
       <c r="D48">
-        <v>-0.00147385570181074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003866033849269454</v>
+      </c>
+      <c r="E48">
+        <v>0.01567296294825997</v>
+      </c>
+      <c r="F48">
+        <v>-0.02184350654245312</v>
+      </c>
+      <c r="G48">
+        <v>-0.108377031245179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07877425166544115</v>
+        <v>0.07884352733491323</v>
       </c>
       <c r="C50">
-        <v>-0.05987816978026433</v>
+        <v>-0.06742141640111593</v>
       </c>
       <c r="D50">
-        <v>0.0001694600778735063</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001226711757232038</v>
+      </c>
+      <c r="E50">
+        <v>-0.0004772362439252814</v>
+      </c>
+      <c r="F50">
+        <v>-0.04288901380748442</v>
+      </c>
+      <c r="G50">
+        <v>-0.09920826754621218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01863713284760306</v>
+        <v>0.01219584587137607</v>
       </c>
       <c r="C51">
-        <v>-0.03891287180665805</v>
+        <v>-0.03131605437814779</v>
       </c>
       <c r="D51">
-        <v>-0.01163990414781482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01270645644817212</v>
+      </c>
+      <c r="E51">
+        <v>0.04157834315724652</v>
+      </c>
+      <c r="F51">
+        <v>0.007727398350376773</v>
+      </c>
+      <c r="G51">
+        <v>-0.1055558224983558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1012797009242112</v>
+        <v>0.08739385178711866</v>
       </c>
       <c r="C53">
-        <v>-0.07321942692967069</v>
+        <v>-0.08483408712601027</v>
       </c>
       <c r="D53">
-        <v>0.0008244898945358998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003809292329226512</v>
+      </c>
+      <c r="E53">
+        <v>-0.02835962936246152</v>
+      </c>
+      <c r="F53">
+        <v>-0.0467981791704497</v>
+      </c>
+      <c r="G53">
+        <v>-0.09095913475688219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02708563534901499</v>
+        <v>0.03176221913583124</v>
       </c>
       <c r="C54">
-        <v>-0.002550366144598117</v>
+        <v>-0.01673173214588017</v>
       </c>
       <c r="D54">
-        <v>0.005038685594496328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001119918197426191</v>
+      </c>
+      <c r="E54">
+        <v>0.02933181672377694</v>
+      </c>
+      <c r="F54">
+        <v>-0.01344903756308001</v>
+      </c>
+      <c r="G54">
+        <v>-0.1137441779925472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07601077991797736</v>
+        <v>0.08191969975283979</v>
       </c>
       <c r="C55">
-        <v>-0.06262963318455096</v>
+        <v>-0.0686530927961027</v>
       </c>
       <c r="D55">
-        <v>0.0001926798424858121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005979622680131945</v>
+      </c>
+      <c r="E55">
+        <v>-0.03233498818590908</v>
+      </c>
+      <c r="F55">
+        <v>-0.04741234787678775</v>
+      </c>
+      <c r="G55">
+        <v>-0.06811324626788268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1523842685133381</v>
+        <v>0.1439983403788196</v>
       </c>
       <c r="C56">
-        <v>-0.09203752828498329</v>
+        <v>-0.1035576811249758</v>
       </c>
       <c r="D56">
-        <v>0.009428848449819217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01333360168838587</v>
+      </c>
+      <c r="E56">
+        <v>-0.03908037172730136</v>
+      </c>
+      <c r="F56">
+        <v>-0.05793367062249759</v>
+      </c>
+      <c r="G56">
+        <v>-0.05512991820433767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.009752335330343852</v>
+        <v>0.003678772383074325</v>
       </c>
       <c r="C57">
-        <v>-0.003495357665058923</v>
+        <v>-0.003089523841264118</v>
       </c>
       <c r="D57">
-        <v>-0.02167715615759754</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02304999021677186</v>
+      </c>
+      <c r="E57">
+        <v>0.02453370187421575</v>
+      </c>
+      <c r="F57">
+        <v>-0.00305771237933457</v>
+      </c>
+      <c r="G57">
+        <v>-0.0110250922262979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04849050156417869</v>
+        <v>0.03787897624536116</v>
       </c>
       <c r="C58">
-        <v>-0.05895678404076033</v>
+        <v>-0.03033795704466783</v>
       </c>
       <c r="D58">
-        <v>-0.003220337550883775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04037212025359087</v>
+      </c>
+      <c r="E58">
+        <v>0.7136033710597666</v>
+      </c>
+      <c r="F58">
+        <v>-0.5889649709904902</v>
+      </c>
+      <c r="G58">
+        <v>0.3127377438057101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1451401001571755</v>
+        <v>0.1474491808179538</v>
       </c>
       <c r="C59">
-        <v>0.2170036267565014</v>
+        <v>0.2068136047627145</v>
       </c>
       <c r="D59">
-        <v>0.05661055896030173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.009605414973943838</v>
+      </c>
+      <c r="E59">
+        <v>0.02306719850957855</v>
+      </c>
+      <c r="F59">
+        <v>-0.01376950570657888</v>
+      </c>
+      <c r="G59">
+        <v>-0.03991359849087584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3104701571492413</v>
+        <v>0.2864614076970232</v>
       </c>
       <c r="C60">
-        <v>-0.09004198637791343</v>
+        <v>-0.09143759440182693</v>
       </c>
       <c r="D60">
-        <v>0.001546277478949247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01913586445735701</v>
+      </c>
+      <c r="E60">
+        <v>0.132464150112805</v>
+      </c>
+      <c r="F60">
+        <v>0.3059995071852376</v>
+      </c>
+      <c r="G60">
+        <v>0.1610220380081664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03290161402705753</v>
+        <v>0.03921900155336443</v>
       </c>
       <c r="C61">
-        <v>-0.06322475669412209</v>
+        <v>-0.06231440251839276</v>
       </c>
       <c r="D61">
-        <v>-0.01043655977197856</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.00780342887732454</v>
+      </c>
+      <c r="E61">
+        <v>0.03954584194759475</v>
+      </c>
+      <c r="F61">
+        <v>0.006084336733788104</v>
+      </c>
+      <c r="G61">
+        <v>-0.08840036593982116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0134035713216504</v>
+        <v>0.01533795945765939</v>
       </c>
       <c r="C63">
-        <v>-0.02740180152292895</v>
+        <v>-0.02650702049734981</v>
       </c>
       <c r="D63">
-        <v>-0.01062844595193711</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009627858255889269</v>
+      </c>
+      <c r="E63">
+        <v>0.01399426399474945</v>
+      </c>
+      <c r="F63">
+        <v>-0.01268820891179924</v>
+      </c>
+      <c r="G63">
+        <v>-0.09000323989582443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04654994290326647</v>
+        <v>0.05200614328569447</v>
       </c>
       <c r="C64">
-        <v>-0.03079446960772571</v>
+        <v>-0.04724289872495627</v>
       </c>
       <c r="D64">
-        <v>-0.005362735821668266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006297862007702612</v>
+      </c>
+      <c r="E64">
+        <v>0.00797215754153169</v>
+      </c>
+      <c r="F64">
+        <v>0.002852006120035976</v>
+      </c>
+      <c r="G64">
+        <v>-0.09415694491787789</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08237734081753843</v>
+        <v>0.07133432139378439</v>
       </c>
       <c r="C65">
-        <v>-0.06456485229458568</v>
+        <v>-0.04564890625692492</v>
       </c>
       <c r="D65">
-        <v>-0.01724893685434906</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01972313418598412</v>
+      </c>
+      <c r="E65">
+        <v>0.06585729242240164</v>
+      </c>
+      <c r="F65">
+        <v>0.007961777556613646</v>
+      </c>
+      <c r="G65">
+        <v>-0.03860644346557805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05714897300154723</v>
+        <v>0.04936130892340129</v>
       </c>
       <c r="C66">
-        <v>-0.1237525382855202</v>
+        <v>-0.1000282855995165</v>
       </c>
       <c r="D66">
-        <v>-0.02330826566719463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01510199596870393</v>
+      </c>
+      <c r="E66">
+        <v>0.06800761468423148</v>
+      </c>
+      <c r="F66">
+        <v>0.02139230880474422</v>
+      </c>
+      <c r="G66">
+        <v>-0.09389462827692567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06295183172460503</v>
+        <v>0.05399480297489042</v>
       </c>
       <c r="C67">
-        <v>-0.02597068913130468</v>
+        <v>-0.02783168255513358</v>
       </c>
       <c r="D67">
-        <v>0.008191107684261321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005207666617873963</v>
+      </c>
+      <c r="E67">
+        <v>0.007946038014338139</v>
+      </c>
+      <c r="F67">
+        <v>-0.009956673710128979</v>
+      </c>
+      <c r="G67">
+        <v>-0.07722291663489818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1114909173760788</v>
+        <v>0.1502478197772191</v>
       </c>
       <c r="C68">
-        <v>0.2805037703757969</v>
+        <v>0.2695412349007646</v>
       </c>
       <c r="D68">
-        <v>0.04319592743374553</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005954706062441457</v>
+      </c>
+      <c r="E68">
+        <v>-0.007197803795774091</v>
+      </c>
+      <c r="F68">
+        <v>-0.04417112405590107</v>
+      </c>
+      <c r="G68">
+        <v>-0.02628600328236679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08189939498044166</v>
+        <v>0.08472871922217962</v>
       </c>
       <c r="C69">
-        <v>-0.06029623005698791</v>
+        <v>-0.07480402433613216</v>
       </c>
       <c r="D69">
-        <v>0.005563835784661342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00831188099365944</v>
+      </c>
+      <c r="E69">
+        <v>-0.01284189043705272</v>
+      </c>
+      <c r="F69">
+        <v>-0.0196310590359466</v>
+      </c>
+      <c r="G69">
+        <v>-0.1005284509372746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1199004007639019</v>
+        <v>0.1377123392138832</v>
       </c>
       <c r="C71">
-        <v>0.2274653201323577</v>
+        <v>0.2366477414269616</v>
       </c>
       <c r="D71">
-        <v>0.04716661606127551</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002325450025152804</v>
+      </c>
+      <c r="E71">
+        <v>0.02341061081030362</v>
+      </c>
+      <c r="F71">
+        <v>-0.03909322675880667</v>
+      </c>
+      <c r="G71">
+        <v>-0.06640835470568646</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07166114381492006</v>
+        <v>0.08710183900369256</v>
       </c>
       <c r="C72">
-        <v>-0.06489617021614967</v>
+        <v>-0.05874842397387099</v>
       </c>
       <c r="D72">
-        <v>0.004738042421228932</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006904342656773863</v>
+      </c>
+      <c r="E72">
+        <v>0.009427755097016984</v>
+      </c>
+      <c r="F72">
+        <v>0.02323096371110756</v>
+      </c>
+      <c r="G72">
+        <v>-0.08511782657146931</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4332133746511688</v>
+        <v>0.3726874844166549</v>
       </c>
       <c r="C73">
-        <v>-0.1019663712242885</v>
+        <v>-0.08271337410375765</v>
       </c>
       <c r="D73">
-        <v>0.009051142816332966</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03301179026959889</v>
+      </c>
+      <c r="E73">
+        <v>0.2860465147025162</v>
+      </c>
+      <c r="F73">
+        <v>0.529965657631508</v>
+      </c>
+      <c r="G73">
+        <v>0.3275573330075945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1182969234707709</v>
+        <v>0.1101556518061999</v>
       </c>
       <c r="C74">
-        <v>-0.1171955859171998</v>
+        <v>-0.1017291547189848</v>
       </c>
       <c r="D74">
-        <v>-5.614248387902671e-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009751865038450144</v>
+      </c>
+      <c r="E74">
+        <v>-0.01281605103700526</v>
+      </c>
+      <c r="F74">
+        <v>-0.05967818332430795</v>
+      </c>
+      <c r="G74">
+        <v>-0.07187868315917785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2606649662656055</v>
+        <v>0.2550409409149304</v>
       </c>
       <c r="C75">
-        <v>-0.1274641036984933</v>
+        <v>-0.1423239917153798</v>
       </c>
       <c r="D75">
-        <v>0.02359209318093738</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03304390381936745</v>
+      </c>
+      <c r="E75">
+        <v>-0.1018674107892666</v>
+      </c>
+      <c r="F75">
+        <v>-0.129192300348066</v>
+      </c>
+      <c r="G75">
+        <v>-0.02324531710023482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1227548302696401</v>
+        <v>0.124307414708876</v>
       </c>
       <c r="C76">
-        <v>-0.1061503824032405</v>
+        <v>-0.1036272881340077</v>
       </c>
       <c r="D76">
-        <v>0.008239097254897057</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01852067096319981</v>
+      </c>
+      <c r="E76">
+        <v>-0.0419296794006727</v>
+      </c>
+      <c r="F76">
+        <v>-0.07938743455672298</v>
+      </c>
+      <c r="G76">
+        <v>-0.06609671768638058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06192886452689446</v>
+        <v>0.06692858466833326</v>
       </c>
       <c r="C77">
-        <v>-0.06113204826309451</v>
+        <v>-0.06148798378807582</v>
       </c>
       <c r="D77">
-        <v>-0.01165490153798256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01089287350441875</v>
+      </c>
+      <c r="E77">
+        <v>0.05524166624375179</v>
+      </c>
+      <c r="F77">
+        <v>-0.03555019745877935</v>
+      </c>
+      <c r="G77">
+        <v>-0.1089311262961587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04885182770423943</v>
+        <v>0.04188791176383685</v>
       </c>
       <c r="C78">
-        <v>-0.05263924256629313</v>
+        <v>-0.05511831093672918</v>
       </c>
       <c r="D78">
-        <v>-0.007171345960709793</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01017982348025962</v>
+      </c>
+      <c r="E78">
+        <v>0.05709989202239169</v>
+      </c>
+      <c r="F78">
+        <v>0.02422650222498625</v>
+      </c>
+      <c r="G78">
+        <v>-0.09622655652423417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0004155182708123396</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001666940262872877</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0009434456736836315</v>
+      </c>
+      <c r="E79">
+        <v>0.007630966710255084</v>
+      </c>
+      <c r="F79">
+        <v>-0.002510514477277521</v>
+      </c>
+      <c r="G79">
+        <v>-0.00912255897425468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05765941997193554</v>
+        <v>0.04062390650635475</v>
       </c>
       <c r="C80">
-        <v>-0.06191246281420638</v>
+        <v>-0.04609086457410756</v>
       </c>
       <c r="D80">
-        <v>-0.01606018070997186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01519570669258906</v>
+      </c>
+      <c r="E80">
+        <v>0.0412674866724947</v>
+      </c>
+      <c r="F80">
+        <v>-0.003441195723018281</v>
+      </c>
+      <c r="G80">
+        <v>-0.04468633369959144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1381391152714619</v>
+        <v>0.1405371040080977</v>
       </c>
       <c r="C81">
-        <v>-0.07787520675343461</v>
+        <v>-0.09233999713005329</v>
       </c>
       <c r="D81">
-        <v>0.009614502738681243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01662810680312731</v>
+      </c>
+      <c r="E81">
+        <v>-0.06927180234885301</v>
+      </c>
+      <c r="F81">
+        <v>-0.1058463636683274</v>
+      </c>
+      <c r="G81">
+        <v>-0.03962553678740572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05220897863034631</v>
+        <v>0.1739571329285669</v>
       </c>
       <c r="C82">
-        <v>-0.03845476913385665</v>
+        <v>-0.1253553388834651</v>
       </c>
       <c r="D82">
-        <v>-0.000152232716845152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02047030557664684</v>
+      </c>
+      <c r="E82">
+        <v>-0.1865997230933984</v>
+      </c>
+      <c r="F82">
+        <v>-0.05478099529894621</v>
+      </c>
+      <c r="G82">
+        <v>-0.02991323463384692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02994570013669699</v>
+        <v>0.0279518066599128</v>
       </c>
       <c r="C83">
-        <v>-0.02034258017163857</v>
+        <v>-0.03272633598997191</v>
       </c>
       <c r="D83">
-        <v>-0.004355824610298589</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007842282213366275</v>
+      </c>
+      <c r="E83">
+        <v>0.03333683420467509</v>
+      </c>
+      <c r="F83">
+        <v>0.007773931274312291</v>
+      </c>
+      <c r="G83">
+        <v>-0.05889807876201483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2492602757636494</v>
+        <v>0.213582030478943</v>
       </c>
       <c r="C85">
-        <v>-0.1300216829747386</v>
+        <v>-0.1256836770725125</v>
       </c>
       <c r="D85">
-        <v>0.0114562869468726</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01938676433706631</v>
+      </c>
+      <c r="E85">
+        <v>-0.1065516199565134</v>
+      </c>
+      <c r="F85">
+        <v>-0.05541508420202988</v>
+      </c>
+      <c r="G85">
+        <v>0.01821517792013875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008634334557504607</v>
+        <v>0.01130059547657187</v>
       </c>
       <c r="C86">
-        <v>-0.02101307495248008</v>
+        <v>-0.02423175375613253</v>
       </c>
       <c r="D86">
-        <v>-0.00937331617869013</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01549385941897272</v>
+      </c>
+      <c r="E86">
+        <v>0.07738243621595553</v>
+      </c>
+      <c r="F86">
+        <v>0.009995062985961471</v>
+      </c>
+      <c r="G86">
+        <v>-0.1699028751424334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01355914165219548</v>
+        <v>0.02032058482684176</v>
       </c>
       <c r="C87">
-        <v>-0.02159261736011934</v>
+        <v>-0.0152456786369052</v>
       </c>
       <c r="D87">
-        <v>-0.0101886694620754</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01502645328724686</v>
+      </c>
+      <c r="E87">
+        <v>0.09893191941641592</v>
+      </c>
+      <c r="F87">
+        <v>-0.03578615802661518</v>
+      </c>
+      <c r="G87">
+        <v>-0.1085105358335196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09559824527023184</v>
+        <v>0.08956274218961315</v>
       </c>
       <c r="C88">
-        <v>-0.05984822757234008</v>
+        <v>-0.06055117114573928</v>
       </c>
       <c r="D88">
-        <v>-0.02387463874038066</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02354413902026707</v>
+      </c>
+      <c r="E88">
+        <v>0.01026074786117295</v>
+      </c>
+      <c r="F88">
+        <v>-0.0160131249612449</v>
+      </c>
+      <c r="G88">
+        <v>-0.1014399847023799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2019838241780254</v>
+        <v>0.2122834478761681</v>
       </c>
       <c r="C89">
-        <v>0.3747668372817323</v>
+        <v>0.3711036259877838</v>
       </c>
       <c r="D89">
-        <v>0.07018886524017372</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001138362691029095</v>
+      </c>
+      <c r="E89">
+        <v>-0.02479268027888889</v>
+      </c>
+      <c r="F89">
+        <v>-0.01253185213916176</v>
+      </c>
+      <c r="G89">
+        <v>-0.08803613155888028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1812030954297729</v>
+        <v>0.1995709408041109</v>
       </c>
       <c r="C90">
-        <v>0.3387804460548796</v>
+        <v>0.3230382524794585</v>
       </c>
       <c r="D90">
-        <v>0.06871774308956631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004277910835538426</v>
+      </c>
+      <c r="E90">
+        <v>-0.01590173869549942</v>
+      </c>
+      <c r="F90">
+        <v>-0.05312998992065435</v>
+      </c>
+      <c r="G90">
+        <v>-0.0529986558872005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2013214267261871</v>
+        <v>0.1908008292492951</v>
       </c>
       <c r="C91">
-        <v>-0.1144889398003213</v>
+        <v>-0.1300534542175243</v>
       </c>
       <c r="D91">
-        <v>0.01624391207032794</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02369412746430925</v>
+      </c>
+      <c r="E91">
+        <v>-0.08406918462668866</v>
+      </c>
+      <c r="F91">
+        <v>-0.1021204487245145</v>
+      </c>
+      <c r="G91">
+        <v>-0.04424854547842383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1842439983083932</v>
+        <v>0.1804786228304616</v>
       </c>
       <c r="C92">
-        <v>0.2623904952171466</v>
+        <v>0.2756569729286835</v>
       </c>
       <c r="D92">
-        <v>0.0933421651290481</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03904058084955866</v>
+      </c>
+      <c r="E92">
+        <v>0.01096900952759055</v>
+      </c>
+      <c r="F92">
+        <v>-0.07103162050906364</v>
+      </c>
+      <c r="G92">
+        <v>-0.07848739086222951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1936659871445512</v>
+        <v>0.2215609848932117</v>
       </c>
       <c r="C93">
-        <v>0.3198863514706799</v>
+        <v>0.3202735567090272</v>
       </c>
       <c r="D93">
-        <v>0.07202332231047359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01005664221213713</v>
+      </c>
+      <c r="E93">
+        <v>0.001708955623714917</v>
+      </c>
+      <c r="F93">
+        <v>-0.03706635558107128</v>
+      </c>
+      <c r="G93">
+        <v>-0.05531975108765391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2811527733647822</v>
+        <v>0.3387397736993649</v>
       </c>
       <c r="C94">
-        <v>-0.1378648596324863</v>
+        <v>-0.1919907122023707</v>
       </c>
       <c r="D94">
-        <v>0.003160238338933162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03310174868940574</v>
+      </c>
+      <c r="E94">
+        <v>-0.3925995831598987</v>
+      </c>
+      <c r="F94">
+        <v>-0.3501764051036331</v>
+      </c>
+      <c r="G94">
+        <v>0.3815512465242312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07297115148735668</v>
+        <v>0.08094763704916079</v>
       </c>
       <c r="C95">
-        <v>-0.09320301201856027</v>
+        <v>-0.0866357865660503</v>
       </c>
       <c r="D95">
-        <v>-0.000144007508781433</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.00674808399070113</v>
+      </c>
+      <c r="E95">
+        <v>0.1398581392203724</v>
+      </c>
+      <c r="F95">
+        <v>0.1502252331337777</v>
+      </c>
+      <c r="G95">
+        <v>-0.09024775272347053</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2085658898798069</v>
+        <v>0.1949205071179226</v>
       </c>
       <c r="C98">
-        <v>-0.04914174187196341</v>
+        <v>-0.0435558056347398</v>
       </c>
       <c r="D98">
-        <v>0.02782156464932026</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.008383233991706226</v>
+      </c>
+      <c r="E98">
+        <v>0.1332850859591564</v>
+      </c>
+      <c r="F98">
+        <v>0.1907128378063062</v>
+      </c>
+      <c r="G98">
+        <v>0.0629102051644444</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01153087456271966</v>
+        <v>0.007882076818233856</v>
       </c>
       <c r="C101">
-        <v>-0.01982644221836621</v>
+        <v>-0.02200052550800505</v>
       </c>
       <c r="D101">
-        <v>-0.00922879375855115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01079549838913399</v>
+      </c>
+      <c r="E101">
+        <v>0.01391449712179689</v>
+      </c>
+      <c r="F101">
+        <v>-0.01187425935718715</v>
+      </c>
+      <c r="G101">
+        <v>-0.1033685319045254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1239540102408024</v>
+        <v>0.1234515254616884</v>
       </c>
       <c r="C102">
-        <v>-0.07247616272691085</v>
+        <v>-0.09401470160856411</v>
       </c>
       <c r="D102">
-        <v>-0.00476646952982602</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.001043962002755619</v>
+      </c>
+      <c r="E102">
+        <v>-0.05145336010488335</v>
+      </c>
+      <c r="F102">
+        <v>-0.018599089647039</v>
+      </c>
+      <c r="G102">
+        <v>-0.01650767540807556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.09504388953616641</v>
+        <v>0.01927985824778192</v>
       </c>
       <c r="C104">
-        <v>0.1771089687835353</v>
+        <v>0.02726862506521638</v>
       </c>
       <c r="D104">
-        <v>-0.9706138379213423</v>
+        <v>-0.9852083680196206</v>
+      </c>
+      <c r="E104">
+        <v>-0.09721350684590484</v>
+      </c>
+      <c r="F104">
+        <v>-0.01940266013298925</v>
+      </c>
+      <c r="G104">
+        <v>0.03739367738179201</v>
       </c>
     </row>
   </sheetData>
